--- a/src/tests/estimation-mobility.test-cases.xlsx
+++ b/src/tests/estimation-mobility.test-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoto/Documents/projects/code-for-japan/JibungotoPlanet-backend/src/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320DB2C7-093E-074D-9699-14C7536333B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464A6C4E-C974-5E47-B00C-E5B091524239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="answers" sheetId="24" r:id="rId1"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11413" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11413" uniqueCount="200">
   <si>
     <t>case</t>
     <phoneticPr fontId="1"/>
@@ -904,10 +904,6 @@
   </si>
   <si>
     <t>mobility17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>use-charging-spots-sometime</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2770,8 +2766,8 @@
   </sheetPr>
   <dimension ref="A1:E500"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="D362" sqref="D362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2823,10 +2819,10 @@
         <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -2857,7 +2853,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2959,7 +2955,7 @@
         <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>1</v>
@@ -3089,7 +3085,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>55</v>
@@ -3106,16 +3102,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>16</v>
@@ -3123,7 +3119,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>54</v>
@@ -3140,13 +3136,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -3157,7 +3153,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>54</v>
@@ -3174,7 +3170,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>54</v>
@@ -3191,7 +3187,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>54</v>
@@ -3208,7 +3204,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>54</v>
@@ -3225,7 +3221,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>54</v>
@@ -3242,13 +3238,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D28" s="1" t="b">
         <v>0</v>
@@ -3259,7 +3255,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>54</v>
@@ -3268,7 +3264,7 @@
         <v>62</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>16</v>
@@ -3276,7 +3272,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>54</v>
@@ -3293,7 +3289,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>54</v>
@@ -3310,7 +3306,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>54</v>
@@ -3327,7 +3323,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>54</v>
@@ -3344,7 +3340,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>54</v>
@@ -3361,7 +3357,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>54</v>
@@ -3378,7 +3374,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B36" s="22" t="s">
         <v>55</v>
@@ -3395,16 +3391,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>16</v>
@@ -3412,7 +3408,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>54</v>
@@ -3429,13 +3425,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -3446,7 +3442,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>54</v>
@@ -3463,7 +3459,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>54</v>
@@ -3480,7 +3476,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>54</v>
@@ -3497,7 +3493,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>54</v>
@@ -3514,7 +3510,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>54</v>
@@ -3531,13 +3527,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D45" s="1" t="b">
         <v>0</v>
@@ -3548,7 +3544,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>54</v>
@@ -3557,7 +3553,7 @@
         <v>62</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>16</v>
@@ -3565,7 +3561,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>54</v>
@@ -3582,7 +3578,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>54</v>
@@ -3599,7 +3595,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>54</v>
@@ -3616,7 +3612,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>54</v>
@@ -3633,7 +3629,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>54</v>
@@ -3650,7 +3646,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>54</v>
@@ -3667,7 +3663,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B53" s="22" t="s">
         <v>55</v>
@@ -3684,16 +3680,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>16</v>
@@ -3701,7 +3697,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>54</v>
@@ -3718,13 +3714,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -3735,7 +3731,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>54</v>
@@ -3752,7 +3748,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>54</v>
@@ -3769,7 +3765,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>54</v>
@@ -3786,7 +3782,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>54</v>
@@ -3803,7 +3799,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>54</v>
@@ -3820,13 +3816,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D62" s="1" t="b">
         <v>0</v>
@@ -3837,7 +3833,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>54</v>
@@ -3846,7 +3842,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>16</v>
@@ -3854,7 +3850,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>54</v>
@@ -3871,7 +3867,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>54</v>
@@ -3888,7 +3884,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>54</v>
@@ -3905,7 +3901,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>54</v>
@@ -3922,7 +3918,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>54</v>
@@ -3939,7 +3935,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>54</v>
@@ -3956,7 +3952,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B70" s="22" t="s">
         <v>55</v>
@@ -3973,16 +3969,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>16</v>
@@ -3990,7 +3986,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>54</v>
@@ -4007,13 +4003,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
@@ -4024,7 +4020,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>54</v>
@@ -4041,7 +4037,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>54</v>
@@ -4058,7 +4054,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>54</v>
@@ -4075,7 +4071,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>54</v>
@@ -4092,7 +4088,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>54</v>
@@ -4109,13 +4105,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D79" s="1" t="b">
         <v>0</v>
@@ -4126,7 +4122,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>54</v>
@@ -4135,7 +4131,7 @@
         <v>62</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>16</v>
@@ -4143,7 +4139,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>54</v>
@@ -4160,7 +4156,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>54</v>
@@ -4177,7 +4173,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>54</v>
@@ -4194,7 +4190,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>54</v>
@@ -4211,7 +4207,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>54</v>
@@ -4228,7 +4224,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>54</v>
@@ -4245,7 +4241,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B87" s="22" t="s">
         <v>55</v>
@@ -4262,16 +4258,16 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>16</v>
@@ -4279,7 +4275,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>54</v>
@@ -4296,13 +4292,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -4313,7 +4309,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>54</v>
@@ -4330,7 +4326,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>54</v>
@@ -4347,7 +4343,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>54</v>
@@ -4364,7 +4360,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>54</v>
@@ -4381,7 +4377,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>54</v>
@@ -4398,13 +4394,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D96" s="1" t="b">
         <v>0</v>
@@ -4415,7 +4411,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>54</v>
@@ -4432,7 +4428,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>54</v>
@@ -4449,7 +4445,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>54</v>
@@ -4466,7 +4462,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>54</v>
@@ -4483,7 +4479,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>54</v>
@@ -4500,7 +4496,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>54</v>
@@ -4517,7 +4513,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>54</v>
@@ -4557,10 +4553,10 @@
         <v>54</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>16</v>
@@ -4591,7 +4587,7 @@
         <v>54</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D107" s="1">
         <v>1</v>
@@ -4693,7 +4689,7 @@
         <v>54</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D113" s="1" t="b">
         <v>1</v>
@@ -4846,10 +4842,10 @@
         <v>54</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>16</v>
@@ -4880,7 +4876,7 @@
         <v>54</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D124" s="1">
         <v>1</v>
@@ -4982,7 +4978,7 @@
         <v>54</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D130" s="1" t="b">
         <v>1</v>
@@ -5135,10 +5131,10 @@
         <v>54</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>16</v>
@@ -5169,7 +5165,7 @@
         <v>54</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
@@ -5271,7 +5267,7 @@
         <v>54</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D147" s="1" t="b">
         <v>1</v>
@@ -5424,10 +5420,10 @@
         <v>54</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>16</v>
@@ -5458,7 +5454,7 @@
         <v>54</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D158" s="1">
         <v>1</v>
@@ -5560,7 +5556,7 @@
         <v>54</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D164" s="1" t="b">
         <v>1</v>
@@ -5713,10 +5709,10 @@
         <v>54</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>16</v>
@@ -5747,7 +5743,7 @@
         <v>54</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D175" s="1">
         <v>1</v>
@@ -5849,7 +5845,7 @@
         <v>54</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D181" s="1" t="b">
         <v>1</v>
@@ -6002,10 +5998,10 @@
         <v>54</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>16</v>
@@ -6036,7 +6032,7 @@
         <v>54</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D192" s="1">
         <v>1</v>
@@ -6138,7 +6134,7 @@
         <v>54</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D198" s="1" t="b">
         <v>1</v>
@@ -6291,10 +6287,10 @@
         <v>54</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>16</v>
@@ -6325,10 +6321,10 @@
         <v>54</v>
       </c>
       <c r="C209" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D209" s="31" t="s">
         <v>175</v>
-      </c>
-      <c r="D209" s="31" t="s">
-        <v>176</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>16</v>
@@ -6427,7 +6423,7 @@
         <v>54</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D215" s="1" t="b">
         <v>1</v>
@@ -6580,10 +6576,10 @@
         <v>54</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>16</v>
@@ -6614,7 +6610,7 @@
         <v>54</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D226" s="1">
         <v>2</v>
@@ -6716,7 +6712,7 @@
         <v>54</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D232" s="1" t="b">
         <v>1</v>
@@ -6869,10 +6865,10 @@
         <v>54</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>16</v>
@@ -6903,10 +6899,10 @@
         <v>54</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D243" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>16</v>
@@ -7005,7 +7001,7 @@
         <v>54</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D249" s="1" t="b">
         <v>1</v>
@@ -7158,10 +7154,10 @@
         <v>54</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>16</v>
@@ -7192,7 +7188,7 @@
         <v>54</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D260" s="1">
         <v>3</v>
@@ -7294,7 +7290,7 @@
         <v>54</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D266" s="1" t="b">
         <v>1</v>
@@ -7447,10 +7443,10 @@
         <v>54</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>16</v>
@@ -7481,10 +7477,10 @@
         <v>54</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D277" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>16</v>
@@ -7583,7 +7579,7 @@
         <v>54</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D283" s="1" t="b">
         <v>1</v>
@@ -7736,10 +7732,10 @@
         <v>54</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>16</v>
@@ -7770,10 +7766,10 @@
         <v>54</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>16</v>
@@ -7872,7 +7868,7 @@
         <v>54</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D300" s="1" t="b">
         <v>1</v>
@@ -8025,10 +8021,10 @@
         <v>54</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>16</v>
@@ -8059,7 +8055,7 @@
         <v>54</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>52</v>
@@ -8161,7 +8157,7 @@
         <v>54</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D317" s="1" t="b">
         <v>1</v>
@@ -8314,10 +8310,10 @@
         <v>54</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>16</v>
@@ -8348,7 +8344,7 @@
         <v>54</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D328" s="1">
         <v>1</v>
@@ -8450,7 +8446,7 @@
         <v>54</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D334" s="1" t="b">
         <v>1</v>
@@ -8603,10 +8599,10 @@
         <v>54</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>16</v>
@@ -8637,7 +8633,7 @@
         <v>54</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D345" s="1">
         <v>1</v>
@@ -8739,7 +8735,7 @@
         <v>54</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D351" s="1" t="b">
         <v>1</v>
@@ -8892,10 +8888,10 @@
         <v>54</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>16</v>
@@ -8912,7 +8908,7 @@
         <v>57</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>16</v>
@@ -8926,7 +8922,7 @@
         <v>54</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D362" s="1">
         <v>1</v>
@@ -9028,7 +9024,7 @@
         <v>54</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D368" s="1" t="b">
         <v>1</v>
@@ -9158,7 +9154,7 @@
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B376" s="22" t="s">
         <v>55</v>
@@ -9175,16 +9171,16 @@
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>16</v>
@@ -9192,7 +9188,7 @@
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>54</v>
@@ -9201,7 +9197,7 @@
         <v>57</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>16</v>
@@ -9209,13 +9205,13 @@
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D379" s="1">
         <v>1</v>
@@ -9226,7 +9222,7 @@
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>54</v>
@@ -9243,7 +9239,7 @@
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>54</v>
@@ -9260,7 +9256,7 @@
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>54</v>
@@ -9277,7 +9273,7 @@
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>54</v>
@@ -9294,7 +9290,7 @@
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>54</v>
@@ -9311,13 +9307,13 @@
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D385" s="1" t="b">
         <v>1</v>
@@ -9328,7 +9324,7 @@
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>54</v>
@@ -9345,7 +9341,7 @@
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>54</v>
@@ -9362,7 +9358,7 @@
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>54</v>
@@ -9379,7 +9375,7 @@
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>54</v>
@@ -9396,7 +9392,7 @@
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>54</v>
@@ -9413,7 +9409,7 @@
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>54</v>
@@ -9430,7 +9426,7 @@
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>54</v>
@@ -9447,7 +9443,7 @@
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B393" s="22" t="s">
         <v>55</v>
@@ -9464,16 +9460,16 @@
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>16</v>
@@ -9481,7 +9477,7 @@
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>54</v>
@@ -9498,13 +9494,13 @@
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D396" s="1">
         <v>1</v>
@@ -9515,7 +9511,7 @@
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>54</v>
@@ -9532,7 +9528,7 @@
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>54</v>
@@ -9549,7 +9545,7 @@
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>54</v>
@@ -9566,7 +9562,7 @@
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>54</v>
@@ -9583,7 +9579,7 @@
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>54</v>
@@ -9600,13 +9596,13 @@
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D402" s="1" t="b">
         <v>1</v>
@@ -9617,7 +9613,7 @@
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>54</v>
@@ -9634,7 +9630,7 @@
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>54</v>
@@ -9651,7 +9647,7 @@
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>54</v>
@@ -9668,7 +9664,7 @@
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>54</v>
@@ -9685,7 +9681,7 @@
     </row>
     <row r="407" spans="1:5">
       <c r="A407" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>54</v>
@@ -9702,7 +9698,7 @@
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>54</v>
@@ -9719,7 +9715,7 @@
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>54</v>
@@ -9736,24 +9732,24 @@
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B410" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C410" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C410" s="30" t="s">
+      <c r="D410" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="D410" s="30" t="s">
+      <c r="E410" s="30" t="s">
         <v>157</v>
-      </c>
-      <c r="E410" s="30" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B411" s="22" t="s">
         <v>55</v>
@@ -9770,16 +9766,16 @@
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>16</v>
@@ -9787,7 +9783,7 @@
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>54</v>
@@ -9804,16 +9800,16 @@
     </row>
     <row r="414" spans="1:5">
       <c r="A414" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C414" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D414" s="31" t="s">
         <v>175</v>
-      </c>
-      <c r="D414" s="31" t="s">
-        <v>176</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>16</v>
@@ -9821,7 +9817,7 @@
     </row>
     <row r="415" spans="1:5">
       <c r="A415" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>54</v>
@@ -9838,7 +9834,7 @@
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>54</v>
@@ -9855,7 +9851,7 @@
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>54</v>
@@ -9872,7 +9868,7 @@
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>54</v>
@@ -9889,7 +9885,7 @@
     </row>
     <row r="419" spans="1:5">
       <c r="A419" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>54</v>
@@ -9906,13 +9902,13 @@
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D420" s="1" t="b">
         <v>1</v>
@@ -9923,7 +9919,7 @@
     </row>
     <row r="421" spans="1:5">
       <c r="A421" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>54</v>
@@ -9940,7 +9936,7 @@
     </row>
     <row r="422" spans="1:5">
       <c r="A422" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>54</v>
@@ -9957,7 +9953,7 @@
     </row>
     <row r="423" spans="1:5">
       <c r="A423" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>54</v>
@@ -9974,7 +9970,7 @@
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>54</v>
@@ -9991,7 +9987,7 @@
     </row>
     <row r="425" spans="1:5">
       <c r="A425" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>54</v>
@@ -10008,7 +10004,7 @@
     </row>
     <row r="426" spans="1:5">
       <c r="A426" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>54</v>
@@ -10025,7 +10021,7 @@
     </row>
     <row r="427" spans="1:5">
       <c r="A427" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>54</v>
@@ -10042,24 +10038,24 @@
     </row>
     <row r="428" spans="1:5">
       <c r="A428" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B428" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C428" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C428" s="30" t="s">
-        <v>156</v>
-      </c>
       <c r="D428" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E428" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="429" spans="1:5">
       <c r="A429" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B429" s="22" t="s">
         <v>55</v>
@@ -10076,16 +10072,16 @@
     </row>
     <row r="430" spans="1:5">
       <c r="A430" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>16</v>
@@ -10093,7 +10089,7 @@
     </row>
     <row r="431" spans="1:5">
       <c r="A431" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>54</v>
@@ -10102,7 +10098,7 @@
         <v>57</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>16</v>
@@ -10110,16 +10106,16 @@
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C432" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D432" s="31" t="s">
         <v>175</v>
-      </c>
-      <c r="D432" s="31" t="s">
-        <v>176</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>16</v>
@@ -10127,7 +10123,7 @@
     </row>
     <row r="433" spans="1:5">
       <c r="A433" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>54</v>
@@ -10144,7 +10140,7 @@
     </row>
     <row r="434" spans="1:5">
       <c r="A434" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>54</v>
@@ -10161,7 +10157,7 @@
     </row>
     <row r="435" spans="1:5">
       <c r="A435" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>54</v>
@@ -10178,7 +10174,7 @@
     </row>
     <row r="436" spans="1:5">
       <c r="A436" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>54</v>
@@ -10195,7 +10191,7 @@
     </row>
     <row r="437" spans="1:5">
       <c r="A437" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>54</v>
@@ -10212,13 +10208,13 @@
     </row>
     <row r="438" spans="1:5">
       <c r="A438" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D438" s="1" t="b">
         <v>1</v>
@@ -10229,7 +10225,7 @@
     </row>
     <row r="439" spans="1:5">
       <c r="A439" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>54</v>
@@ -10246,7 +10242,7 @@
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>54</v>
@@ -10263,7 +10259,7 @@
     </row>
     <row r="441" spans="1:5">
       <c r="A441" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>54</v>
@@ -10280,7 +10276,7 @@
     </row>
     <row r="442" spans="1:5">
       <c r="A442" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>54</v>
@@ -10297,7 +10293,7 @@
     </row>
     <row r="443" spans="1:5">
       <c r="A443" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>54</v>
@@ -10314,7 +10310,7 @@
     </row>
     <row r="444" spans="1:5">
       <c r="A444" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>54</v>
@@ -10331,7 +10327,7 @@
     </row>
     <row r="445" spans="1:5">
       <c r="A445" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>54</v>
@@ -10348,24 +10344,24 @@
     </row>
     <row r="446" spans="1:5">
       <c r="A446" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B446" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C446" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C446" s="30" t="s">
-        <v>156</v>
-      </c>
       <c r="D446" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E446" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="447" spans="1:5">
       <c r="A447" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B447" s="22" t="s">
         <v>55</v>
@@ -10382,16 +10378,16 @@
     </row>
     <row r="448" spans="1:5">
       <c r="A448" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E448" s="1" t="s">
         <v>16</v>
@@ -10399,7 +10395,7 @@
     </row>
     <row r="449" spans="1:5">
       <c r="A449" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>54</v>
@@ -10408,7 +10404,7 @@
         <v>57</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E449" s="1" t="s">
         <v>16</v>
@@ -10416,16 +10412,16 @@
     </row>
     <row r="450" spans="1:5">
       <c r="A450" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C450" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D450" s="31" t="s">
         <v>175</v>
-      </c>
-      <c r="D450" s="31" t="s">
-        <v>176</v>
       </c>
       <c r="E450" s="1" t="s">
         <v>16</v>
@@ -10433,7 +10429,7 @@
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>54</v>
@@ -10450,7 +10446,7 @@
     </row>
     <row r="452" spans="1:5">
       <c r="A452" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>54</v>
@@ -10467,7 +10463,7 @@
     </row>
     <row r="453" spans="1:5">
       <c r="A453" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>54</v>
@@ -10484,7 +10480,7 @@
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>54</v>
@@ -10501,7 +10497,7 @@
     </row>
     <row r="455" spans="1:5">
       <c r="A455" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>54</v>
@@ -10518,13 +10514,13 @@
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D456" s="1" t="b">
         <v>1</v>
@@ -10535,7 +10531,7 @@
     </row>
     <row r="457" spans="1:5">
       <c r="A457" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>54</v>
@@ -10552,7 +10548,7 @@
     </row>
     <row r="458" spans="1:5">
       <c r="A458" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>54</v>
@@ -10569,7 +10565,7 @@
     </row>
     <row r="459" spans="1:5">
       <c r="A459" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>54</v>
@@ -10586,7 +10582,7 @@
     </row>
     <row r="460" spans="1:5">
       <c r="A460" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>54</v>
@@ -10603,7 +10599,7 @@
     </row>
     <row r="461" spans="1:5">
       <c r="A461" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>54</v>
@@ -10620,7 +10616,7 @@
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>54</v>
@@ -10637,7 +10633,7 @@
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>54</v>
@@ -10654,24 +10650,24 @@
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B464" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C464" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C464" s="30" t="s">
-        <v>156</v>
-      </c>
       <c r="D464" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E464" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B465" s="22" t="s">
         <v>55</v>
@@ -10688,16 +10684,16 @@
     </row>
     <row r="466" spans="1:5">
       <c r="A466" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>16</v>
@@ -10705,7 +10701,7 @@
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>54</v>
@@ -10722,16 +10718,16 @@
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C468" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D468" s="31" t="s">
         <v>175</v>
-      </c>
-      <c r="D468" s="31" t="s">
-        <v>176</v>
       </c>
       <c r="E468" s="1" t="s">
         <v>16</v>
@@ -10739,7 +10735,7 @@
     </row>
     <row r="469" spans="1:5">
       <c r="A469" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>54</v>
@@ -10756,7 +10752,7 @@
     </row>
     <row r="470" spans="1:5">
       <c r="A470" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>54</v>
@@ -10773,7 +10769,7 @@
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>54</v>
@@ -10790,7 +10786,7 @@
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>54</v>
@@ -10807,7 +10803,7 @@
     </row>
     <row r="473" spans="1:5">
       <c r="A473" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>54</v>
@@ -10824,13 +10820,13 @@
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D474" s="1" t="b">
         <v>1</v>
@@ -10841,7 +10837,7 @@
     </row>
     <row r="475" spans="1:5">
       <c r="A475" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>54</v>
@@ -10858,7 +10854,7 @@
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>54</v>
@@ -10875,7 +10871,7 @@
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>54</v>
@@ -10892,7 +10888,7 @@
     </row>
     <row r="478" spans="1:5">
       <c r="A478" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>54</v>
@@ -10909,7 +10905,7 @@
     </row>
     <row r="479" spans="1:5">
       <c r="A479" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>54</v>
@@ -10926,7 +10922,7 @@
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>54</v>
@@ -10943,7 +10939,7 @@
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>54</v>
@@ -10960,24 +10956,24 @@
     </row>
     <row r="482" spans="1:5">
       <c r="A482" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B482" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C482" s="30" t="s">
         <v>155</v>
-      </c>
-      <c r="C482" s="30" t="s">
-        <v>156</v>
       </c>
       <c r="D482" s="30" t="s">
         <v>52</v>
       </c>
       <c r="E482" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B483" s="22" t="s">
         <v>55</v>
@@ -10994,16 +10990,16 @@
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E484" s="1" t="s">
         <v>16</v>
@@ -11011,7 +11007,7 @@
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>54</v>
@@ -11028,16 +11024,16 @@
     </row>
     <row r="486" spans="1:5">
       <c r="A486" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C486" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D486" s="31" t="s">
         <v>175</v>
-      </c>
-      <c r="D486" s="31" t="s">
-        <v>176</v>
       </c>
       <c r="E486" s="1" t="s">
         <v>16</v>
@@ -11045,7 +11041,7 @@
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>54</v>
@@ -11062,7 +11058,7 @@
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>54</v>
@@ -11079,7 +11075,7 @@
     </row>
     <row r="489" spans="1:5">
       <c r="A489" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>54</v>
@@ -11096,7 +11092,7 @@
     </row>
     <row r="490" spans="1:5">
       <c r="A490" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>54</v>
@@ -11113,7 +11109,7 @@
     </row>
     <row r="491" spans="1:5">
       <c r="A491" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>54</v>
@@ -11130,13 +11126,13 @@
     </row>
     <row r="492" spans="1:5">
       <c r="A492" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D492" s="1" t="b">
         <v>1</v>
@@ -11147,7 +11143,7 @@
     </row>
     <row r="493" spans="1:5">
       <c r="A493" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>54</v>
@@ -11164,7 +11160,7 @@
     </row>
     <row r="494" spans="1:5">
       <c r="A494" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>54</v>
@@ -11181,7 +11177,7 @@
     </row>
     <row r="495" spans="1:5">
       <c r="A495" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>54</v>
@@ -11198,7 +11194,7 @@
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>54</v>
@@ -11215,7 +11211,7 @@
     </row>
     <row r="497" spans="1:5">
       <c r="A497" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>54</v>
@@ -11232,7 +11228,7 @@
     </row>
     <row r="498" spans="1:5">
       <c r="A498" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>54</v>
@@ -11249,7 +11245,7 @@
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>54</v>
@@ -11266,19 +11262,19 @@
     </row>
     <row r="500" spans="1:5">
       <c r="A500" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B500" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C500" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C500" s="30" t="s">
-        <v>156</v>
-      </c>
       <c r="D500" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E500" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
